--- a/ujian tahfidz dicetak.xlsx
+++ b/ujian tahfidz dicetak.xlsx
@@ -45,9 +45,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
@@ -75,20 +75,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -114,6 +100,102 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -121,91 +203,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,19 +220,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -244,19 +376,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -268,139 +394,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,6 +533,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -566,17 +575,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -595,158 +606,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="16" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="17" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="13" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="12" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="12" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="13" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -763,9 +763,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment vertical="center"/>
     </xf>
@@ -775,9 +772,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="true">
       <alignment vertical="center"/>
     </xf>
@@ -793,10 +787,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="true">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="true">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="true">
@@ -867,6 +867,53 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>635</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>559435</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1083945</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1485900" y="635"/>
+          <a:ext cx="1026160" cy="1083310"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1127,10 +1174,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -1140,426 +1187,458 @@
     <col min="3" max="5" width="15.5714285714286" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5">
-      <c r="B1" s="1" t="s">
+    <row r="1" ht="96" customHeight="true"/>
+    <row r="2" spans="2:5">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="3" spans="2:2">
-      <c r="B3" s="3" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
-      <c r="B4" s="3" t="s">
+    <row r="5" spans="2:3">
+      <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C5" s="3">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="2:5">
-      <c r="B6" s="5" t="s">
+    <row r="7" spans="2:5">
+      <c r="B7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" s="7">
-        <f t="shared" ref="B7:B26" si="0">20*($C$4-1)+1+A7</f>
-        <v>582</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <f t="shared" ref="A8:A23" si="1">A7+1</f>
-        <v>2</v>
-      </c>
-      <c r="B8" s="7">
-        <f t="shared" si="0"/>
-        <v>583</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="B8" s="5">
+        <f t="shared" ref="B8:B27" si="0">20*($C$5-1)+1+A8</f>
+        <v>582</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="B9" s="7">
-        <f t="shared" si="0"/>
-        <v>584</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
+        <f t="shared" ref="A9:A30" si="1">A8+1</f>
+        <v>2</v>
+      </c>
+      <c r="B9" s="5">
+        <f t="shared" si="0"/>
+        <v>583</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="B10" s="7">
-        <f t="shared" si="0"/>
-        <v>585</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="B10" s="5">
+        <f t="shared" si="0"/>
+        <v>584</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="B11" s="7">
-        <f t="shared" si="0"/>
-        <v>586</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="B11" s="5">
+        <f t="shared" si="0"/>
+        <v>585</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="B12" s="7">
-        <f t="shared" si="0"/>
-        <v>587</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="B12" s="5">
+        <f t="shared" si="0"/>
+        <v>586</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
         <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="B13" s="7">
-        <f t="shared" si="0"/>
-        <v>588</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="B13" s="5">
+        <f t="shared" si="0"/>
+        <v>587</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="B14" s="7">
-        <f t="shared" si="0"/>
-        <v>589</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="B14" s="5">
+        <f t="shared" si="0"/>
+        <v>588</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
         <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="B15" s="7">
-        <f t="shared" si="0"/>
-        <v>590</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="B15" s="5">
+        <f t="shared" si="0"/>
+        <v>589</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
         <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="B16" s="7">
-        <f t="shared" si="0"/>
-        <v>591</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="B16" s="5">
+        <f t="shared" si="0"/>
+        <v>590</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
         <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="B17" s="7">
-        <f t="shared" si="0"/>
-        <v>592</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="B17" s="5">
+        <f t="shared" si="0"/>
+        <v>591</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
         <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="B18" s="7">
-        <f t="shared" si="0"/>
-        <v>593</v>
-      </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="B18" s="5">
+        <f t="shared" si="0"/>
+        <v>592</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
         <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="B19" s="7">
-        <f t="shared" si="0"/>
-        <v>594</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="B19" s="5">
+        <f t="shared" si="0"/>
+        <v>593</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
         <f t="shared" si="1"/>
-        <v>14</v>
-      </c>
-      <c r="B20" s="7">
-        <f t="shared" si="0"/>
-        <v>595</v>
-      </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
+        <v>13</v>
+      </c>
+      <c r="B20" s="5">
+        <f t="shared" si="0"/>
+        <v>594</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
         <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="B21" s="7">
-        <f t="shared" si="0"/>
-        <v>596</v>
-      </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
+        <v>14</v>
+      </c>
+      <c r="B21" s="5">
+        <f t="shared" si="0"/>
+        <v>595</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
         <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="B22" s="7">
-        <f t="shared" si="0"/>
-        <v>597</v>
-      </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="B22" s="5">
+        <f t="shared" si="0"/>
+        <v>596</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <f>A22+1</f>
-        <v>17</v>
-      </c>
-      <c r="B23" s="7">
-        <f t="shared" si="0"/>
-        <v>598</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B23" s="5">
+        <f t="shared" si="0"/>
+        <v>597</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
     </row>
     <row r="24" spans="1:5">
       <c r="A24">
-        <f>A23+1</f>
-        <v>18</v>
-      </c>
-      <c r="B24" s="7">
-        <f t="shared" si="0"/>
-        <v>599</v>
-      </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B24" s="5">
+        <f t="shared" si="0"/>
+        <v>598</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
     </row>
     <row r="25" spans="1:5">
       <c r="A25">
-        <f>A24+1</f>
-        <v>19</v>
-      </c>
-      <c r="B25" s="7">
-        <f t="shared" si="0"/>
-        <v>600</v>
-      </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B25" s="5">
+        <f t="shared" si="0"/>
+        <v>599</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
     </row>
     <row r="26" spans="1:5">
       <c r="A26">
-        <f>A25+1</f>
-        <v>20</v>
-      </c>
-      <c r="B26" s="7">
-        <f>20*($C$4-1)+1+A26</f>
-        <v>601</v>
-      </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B26" s="5">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
     </row>
     <row r="27" spans="1:5">
       <c r="A27">
-        <f>A26+1</f>
-        <v>21</v>
-      </c>
-      <c r="B27" s="7">
-        <f>IF($C$4=30,20*($C$4-1)+1+A27,"")</f>
-        <v>602</v>
-      </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B27" s="5">
+        <f t="shared" si="0"/>
+        <v>601</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
     </row>
     <row r="28" spans="1:5">
       <c r="A28">
-        <f>A27+1</f>
-        <v>22</v>
-      </c>
-      <c r="B28" s="7">
-        <f>IF($C$4=30,20*($C$4-1)+1+A28,"")</f>
-        <v>603</v>
-      </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="B28" s="5">
+        <f>IF($C$5=30,20*($C$5-1)+1+A28,"")</f>
+        <v>602</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
     </row>
     <row r="29" spans="1:5">
       <c r="A29">
-        <f>A28+1</f>
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="B29" s="5">
+        <f>IF($C$5=30,20*($C$5-1)+1+A29,"")</f>
+        <v>603</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="B29" s="7">
-        <f>IF($C$4=30,20*($C$4-1)+1+A29,"")</f>
+      <c r="B30" s="5">
+        <f>IF($C$5=30,20*($C$5-1)+1+A30,"")</f>
         <v>604</v>
       </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-    </row>
-    <row r="31" spans="2:5">
-      <c r="B31" s="8" t="s">
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-    </row>
-    <row r="32" spans="2:5">
-      <c r="B32" s="9"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="14"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
     </row>
     <row r="33" spans="2:5">
-      <c r="B33" s="11"/>
-      <c r="E33" s="15"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="14"/>
     </row>
     <row r="34" spans="2:5">
-      <c r="B34" s="11"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
       <c r="E34" s="15"/>
     </row>
     <row r="35" spans="2:5">
-      <c r="B35" s="11"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
       <c r="E35" s="15"/>
     </row>
     <row r="36" spans="2:5">
-      <c r="B36" s="11"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
       <c r="E36" s="15"/>
     </row>
     <row r="37" spans="2:5">
-      <c r="B37" s="11"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
       <c r="E37" s="15"/>
     </row>
     <row r="38" spans="2:5">
-      <c r="B38" s="11"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
       <c r="E38" s="15"/>
     </row>
     <row r="39" spans="2:5">
-      <c r="B39" s="11"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
       <c r="E39" s="15"/>
     </row>
     <row r="40" spans="2:5">
-      <c r="B40" s="11"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
       <c r="E40" s="15"/>
     </row>
     <row r="41" spans="2:5">
-      <c r="B41" s="11"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
       <c r="E41" s="15"/>
     </row>
     <row r="42" spans="2:5">
-      <c r="B42" s="11"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
       <c r="E42" s="15"/>
     </row>
     <row r="43" spans="2:5">
       <c r="B43" s="11"/>
-      <c r="E43" s="15"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="16"/>
     </row>
     <row r="44" spans="2:5">
-      <c r="B44" s="11"/>
-      <c r="E44" s="15"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="13"/>
     </row>
     <row r="45" spans="2:5">
-      <c r="B45" s="11"/>
-      <c r="E45" s="15"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="13"/>
     </row>
     <row r="46" spans="2:5">
-      <c r="B46" s="11"/>
-      <c r="E46" s="15"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="13"/>
     </row>
     <row r="47" spans="2:5">
-      <c r="B47" s="11"/>
-      <c r="E47" s="15"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="13"/>
     </row>
     <row r="48" spans="2:5">
-      <c r="B48" s="12"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="16"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="13"/>
+    </row>
+    <row r="49" spans="2:5">
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B32:E32"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>